--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,17 +247,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.77734375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.32577197084482051</v>
+        <v>0.32577036678551236</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30828128973498226</v>
+        <v>0.30843618033632086</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00093613289677142025</v>
+        <v>-0.00092654417718283227</v>
       </c>
       <c r="E3" s="0">
-        <v>4.2365830906268308e-05</v>
+        <v>4.213297079274692e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00058426813099537339</v>
+        <v>-0.00057354773001715078</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00027141232177967431</v>
+        <v>0.00027206115326604838</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.2286338561284483e-06</v>
+        <v>-8.7209525114564392e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00036873861839171047</v>
+        <v>-0.0003691483579295538</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.004414441485006193</v>
+        <v>0.0044144427297692079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30665098663187457</v>
+        <v>0.30576214249243772</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0003233755872157394</v>
+        <v>-0.00051468337209739992</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.4061517081168469e-05</v>
+        <v>1.4045034288427827e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-2.8814252588516374e-06</v>
+        <v>-3.0295275694206335e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.82942920849902e-06</v>
+        <v>-1.7575599740610715e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00073758216613530113</v>
+        <v>-0.00073496328501709417</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.2583498953281701e-05</v>
+        <v>-5.3446802259467764e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00046511828872208838</v>
+        <v>-0.00046511758164330397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29170692754226291</v>
+        <v>0.29189308253265622</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0027571403744506878</v>
+        <v>0.0029878728614583278</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0018887611985247742</v>
+        <v>-0.001891167284993457</v>
       </c>
       <c r="E5" s="0">
-        <v>5.5335984758033493e-06</v>
+        <v>5.5811582088267059e-06</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00024076441671636156</v>
+        <v>-0.00024622328582391641</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0010645774563889847</v>
+        <v>-0.0010650909618550571</v>
       </c>
       <c r="H5" s="0">
-        <v>-6.669682055761403e-05</v>
+        <v>-6.7045672528779742e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-6.9320597295686375e-05</v>
+        <v>-6.9175562865486412e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.000500958534693563</v>
+        <v>-0.00050096370920144073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.36656412067483352</v>
+        <v>0.36645096516291703</v>
       </c>
       <c r="C6" s="0">
-        <v>0.015548880064323048</v>
+        <v>0.015506121168330361</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.9080561644008635e-05</v>
+        <v>-1.9073547315090085e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.638092982635642e-05</v>
+        <v>-4.6296280922476205e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.1939903563893741e-05</v>
+        <v>-6.2191350035619049e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0019738414564280504</v>
+        <v>-0.0019803415867228856</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>4.0443677657042709e-05</v>
+        <v>4.0440330410951297e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.36067415866882613</v>
+        <v>0.36045042016366957</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0018429151080384431</v>
+        <v>-0.0018529242856495343</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00019322642552761706</v>
+        <v>-0.00019084837197465746</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0011771025229204536</v>
+        <v>-0.0011803798246832291</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00056914301907893942</v>
+        <v>0.00057041116131474937</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00012253220860825671</v>
+        <v>0.0001223419975827628</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0017358355856650909</v>
+        <v>0.0017358371720212484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.24877117013696451</v>
+        <v>0.24921101423408276</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.016056433546333425</v>
+        <v>-0.015974001822534164</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>3.8294169503988241e-05</v>
+        <v>3.8301988688003535e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00029550324453226956</v>
+        <v>-0.00029548013311802364</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>2.3911032808047635e-05</v>
+        <v>2.391500383187952e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00025610373610099969</v>
+        <v>0.00025942179423668426</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00027957676787770946</v>
+        <v>0.00027957353897267723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.23955372969994632</v>
+        <v>0.23998846500863788</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00016322899767734868</v>
+        <v>0.00016971053206171156</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0017581118524395969</v>
+        <v>-0.0017611994298077438</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0058291049266102121</v>
+        <v>-0.0058295347441790959</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00045083226131357806</v>
+        <v>0.00044796595215816008</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00018542195529057764</v>
+        <v>-0.00018511762898431968</v>
       </c>
       <c r="I9" s="0">
-        <v>-4.4813640826619301e-05</v>
+        <v>-4.4709512089161381e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00070027894905039245</v>
+        <v>0.00070027792054624949</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.42402741738036176</v>
+        <v>0.4232943953622883</v>
       </c>
       <c r="C10" s="0">
-        <v>0.038149971142018485</v>
+        <v>0.038175018279621796</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-3.0201453940531182e-05</v>
+        <v>-3.0201578051124305e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0002942369713253503</v>
+        <v>-0.00029418270357637211</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1.1576152905430229e-05</v>
+        <v>1.1569427451533095e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00025856404786421289</v>
+        <v>-0.00025573727888316154</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0020244105509975162</v>
+        <v>-0.0020311630101221829</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0002038982807590628</v>
+        <v>0.00020391618029075298</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.41773377382204907</v>
+        <v>0.41705047365928971</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00062543125420845178</v>
+        <v>0.00065243863950509545</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00027296302089244666</v>
+        <v>0.00027643857934656286</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.001225947982358411</v>
+        <v>-0.0012250954763661094</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00097934266524379214</v>
+        <v>0.00098181704034826624</v>
       </c>
       <c r="H11" s="0">
-        <v>2.6874048716527778e-05</v>
+        <v>2.6784021978306805e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0022032953984890682</v>
+        <v>-0.0022090327842295247</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0086676125791037006</v>
+        <v>0.0086676098881686148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.34857488907790923</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.027982738315669869</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>4.1289423430865034e-05</v>
+      </c>
+      <c r="F12" s="0">
+        <v>6.7484195247765197e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-5.8547386012826072e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.00105733310251161</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>6.2389152645447865e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,17 +388,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.32577036678551236</v>
+        <v>0.3256804355352016</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30843618033632086</v>
+        <v>0.30816368191092952</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00092654417718283227</v>
+        <v>-0.00093481584931413039</v>
       </c>
       <c r="E3" s="0">
-        <v>4.213297079274692e-05</v>
+        <v>4.2333571888773773e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00057354773001715078</v>
+        <v>-0.00058001361369429568</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00027206115326604838</v>
+        <v>0.00027327619042374728</v>
       </c>
       <c r="H3" s="0">
-        <v>-8.7209525114564392e-06</v>
+        <v>-9.0574429955175101e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0003691483579295538</v>
+        <v>-0.00036918817273094381</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0044144427297692079</v>
+        <v>0.0044144429268929142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30576214249243772</v>
+        <v>0.30615196515927562</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00051468337209739992</v>
+        <v>-0.00044962972815873231</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.4045034288427827e-05</v>
+        <v>1.404704257994283e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-3.0295275694206335e-06</v>
+        <v>-2.9843739681832863e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.7575599740610715e-06</v>
+        <v>-1.7106359439481357e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00073496328501709417</v>
+        <v>-0.00073300849401157215</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.3446802259467764e-05</v>
+        <v>-5.5467105035783357e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00046511758164330397</v>
+        <v>-0.00046515087253279352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29189308253265622</v>
+        <v>0.29107380714986886</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0029878728614583278</v>
+        <v>0.002798851507307876</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.001891167284993457</v>
+        <v>-0.0018795171439125991</v>
       </c>
       <c r="E5" s="0">
-        <v>5.5811582088267059e-06</v>
+        <v>4.9101884596846336e-06</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00024622328582391641</v>
+        <v>-0.0002402327111696024</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0010650909618550571</v>
+        <v>-0.0010694485211636545</v>
       </c>
       <c r="H5" s="0">
-        <v>-6.7045672528779742e-05</v>
+        <v>-6.6762040581606471e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-6.9175562865486412e-05</v>
+        <v>-6.907797957140079e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00050096370920144073</v>
+        <v>-0.00050095395577737234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.36645096516291703</v>
+        <v>0.36673695867136979</v>
       </c>
       <c r="C6" s="0">
-        <v>0.015506121168330361</v>
+        <v>0.015690455754533837</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.9073547315090085e-05</v>
+        <v>-1.9074004489477648e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.6296280922476205e-05</v>
+        <v>-4.6090344098870993e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.2191350035619049e-05</v>
+        <v>-6.1837088574713466e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0019803415867228856</v>
+        <v>-0.0019798340843092403</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>4.0440330410951297e-05</v>
+        <v>4.0429348502013518e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.36045042016366957</v>
+        <v>0.36071363858859762</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0018529242856495343</v>
+        <v>-0.0018473270704799788</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00019084837197465746</v>
+        <v>-0.00018503809384513359</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0011803798246832291</v>
+        <v>-0.0011640008425677342</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00057041116131474937</v>
+        <v>0.00057219287892317427</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0001223419975827628</v>
+        <v>0.00012223921066690599</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0017358371720212484</v>
+        <v>0.0017358367305160272</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.24921101423408276</v>
+        <v>0.24812149697111863</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.015974001822534164</v>
+        <v>-0.016204653156764691</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>3.8301988688003535e-05</v>
+        <v>3.8325706922680478e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00029548013311802364</v>
+        <v>-0.00029572202683979221</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>2.391500383187952e-05</v>
+        <v>2.3984050242842706e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00025942179423668426</v>
+        <v>0.00026390894887734257</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00027957353897267723</v>
+        <v>0.00027957249851495725</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.23998846500863788</v>
+        <v>0.23873235736497128</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00016971053206171156</v>
+        <v>0.00014688888564054961</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0017611994298077438</v>
+        <v>-0.0017666381834015111</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0058295347441790959</v>
+        <v>-0.0058395172376841447</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00044796595215816008</v>
+        <v>0.00045125213532702635</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00018511762898431968</v>
+        <v>-0.00018557717051918935</v>
       </c>
       <c r="I9" s="0">
-        <v>-4.4709512089161381e-05</v>
+        <v>-4.4490609896338344e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00070027792054624949</v>
+        <v>0.00070028142645983671</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.4232943953622883</v>
+        <v>0.42315131416736357</v>
       </c>
       <c r="C10" s="0">
-        <v>0.038175018279621796</v>
+        <v>0.038372725156469834</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-3.0201578051124305e-05</v>
+        <v>-3.0248177552572467e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00029418270357637211</v>
+        <v>-0.00029626898655261708</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1.1569427451533095e-05</v>
+        <v>1.1554921147636507e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00025573727888316154</v>
+        <v>-0.00025877551952554182</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0020311630101221829</v>
+        <v>-0.0019897983420327022</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00020391618029075298</v>
+        <v>0.00020389902830580953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.41705047365928971</v>
+        <v>0.41605140401197432</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00065243863950509545</v>
+        <v>0.00054407781048783225</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00027643857934656286</v>
+        <v>0.00026490290177383997</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0012250954763661094</v>
+        <v>-0.0012992015281837797</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00098181704034826624</v>
+        <v>0.00098867420975613449</v>
       </c>
       <c r="H11" s="0">
-        <v>2.6784021978306805e-05</v>
+        <v>2.3409787902422145e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0022090327842295247</v>
+        <v>-0.0022116090198935874</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0086676098881686148</v>
+        <v>0.0086676088214079905</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.34857488907790923</v>
+        <v>0.3479800435124128</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.027982738315669869</v>
+        <v>-0.039836111365178201</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>4.1289423430865034e-05</v>
+        <v>4.9738602342203592e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>6.7484195247765197e-06</v>
+        <v>0.0012263862658311816</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-5.8547386012826072e-06</v>
+        <v>0.00027293769346020691</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.00105733310251161</v>
+        <v>0.0046778165531450805</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>6.2389152645447865e-05</v>
+        <v>0.00012694937519824867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.23589523535033199</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.057775873054496267</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0050409666319417229</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.00032315159474622035</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0011180344386861327</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00045477024046481403</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-4.3318055535203905e-05</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.043349915361738489</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.041125373561045897</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.18343779719089737</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>4.2769214274856339e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-8.7286293413095755e-06</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-5.8636996810783729e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.02345979278283207</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>3.4160076292366615e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.3256804355352016</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.30816368191092952</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.30615196515927562</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.29107380714986886</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.36673695867136979</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.36071363858859762</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.24812149697111863</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.23873235736497128</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.42315131416736357</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.41605140401197432</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.3479800435124128</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.23589523535033199</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.041125373561045897</v>
+        <v>0.088320472815128032</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.18343779719089737</v>
+        <v>-0.16034899796252389</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>4.2769214274856339e-05</v>
+        <v>2.9111322988806656e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>-8.7286293413095755e-06</v>
+        <v>-0.00052487308022409552</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-5.8636996810783729e-06</v>
+        <v>-0.0031358537801107729</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.02345979278283207</v>
+        <v>-0.012519026585958043</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>3.4160076292366615e-06</v>
+        <v>0.00041270098487344864</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.17999104235062069</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.11811946933746008</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0042102225039920968</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0060932125767469902</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.011017632765522995</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.028367046777318758</v>
       </c>
     </row>
   </sheetData>
